--- a/_static/NoCode/Sproles Point System.xlsx
+++ b/_static/NoCode/Sproles Point System.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/New Cases/NoCode, Inc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA366A-23D2-A94A-AB84-09416AD65D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B497A-43C0-2A4A-8E41-988721B3CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="360" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
+    <workbookView xWindow="3160" yWindow="780" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sproles' Input Sheet" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,11 +647,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="D6" s="12">
         <f>'Point System Weightings'!C9</f>
-        <v>0</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -659,11 +659,11 @@
         <v>27</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D7" s="12">
         <f>'Point System Weightings'!C18</f>
-        <v>0</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -671,11 +671,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="12">
         <f>'Point System Weightings'!C23</f>
-        <v>0</v>
+        <v>-6900</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -683,11 +683,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12">
         <f>'Point System Weightings'!C28</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12">
         <f>'Point System Weightings'!C34</f>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13">
         <f>SUM('Sproles'' Input Sheet'!D6:D10)</f>
-        <v>10000</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="C9" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B4*'Sproles'' Input Sheet'!C6-B5*POWER(('Sproles'' Input Sheet'!C6-B6)/B7,2)+B8,'Point System Weightings'!B9))</f>
-        <v>0</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="C18" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B12*(B13*'Sproles'' Input Sheet'!C7-B14*POWER(('Sproles'' Input Sheet'!C7-B15)/B16,2)+B17),'Point System Weightings'!B18))</f>
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -961,8 +961,8 @@
         <v>3000</v>
       </c>
       <c r="C23" s="2">
-        <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*100*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*100,2)+B23,0))</f>
-        <v>0</v>
+        <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*10*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*10,2)+B23,0))</f>
+        <v>-6900</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="C28" s="2">
         <f>IF('Sproles'' Input Sheet'!$C$10=$A$34,0,INDEX(B26:B28,MATCH('Sproles'' Input Sheet'!$C$9,$A$26:$A$28,0)))</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C34" s="2">
         <f>INDEX(B31:B34,MATCH('Sproles'' Input Sheet'!C10,A31:A34,0))</f>
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/_static/NoCode/Sproles Point System.xlsx
+++ b/_static/NoCode/Sproles Point System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B497A-43C0-2A4A-8E41-988721B3CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADFCA6-1E68-D545-80E1-E098320D59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="780" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,11 +647,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>'Point System Weightings'!C9</f>
-        <v>1967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -659,11 +659,11 @@
         <v>27</v>
       </c>
       <c r="C7" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>'Point System Weightings'!C18</f>
-        <v>-133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -671,11 +671,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f>'Point System Weightings'!C23</f>
-        <v>-6900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -683,11 +683,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <f>'Point System Weightings'!C28</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="12">
         <f>'Point System Weightings'!C34</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13">
         <f>SUM('Sproles'' Input Sheet'!D6:D10)</f>
-        <v>12184</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
       </c>
       <c r="C9" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B4*'Sproles'' Input Sheet'!C6-B5*POWER(('Sproles'' Input Sheet'!C6-B6)/B7,2)+B8,'Point System Weightings'!B9))</f>
-        <v>1967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="C18" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B12*(B13*'Sproles'' Input Sheet'!C7-B14*POWER(('Sproles'' Input Sheet'!C7-B15)/B16,2)+B17),'Point System Weightings'!B18))</f>
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C23" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*10*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*10,2)+B23,0))</f>
-        <v>-6900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="C28" s="2">
         <f>IF('Sproles'' Input Sheet'!$C$10=$A$34,0,INDEX(B26:B28,MATCH('Sproles'' Input Sheet'!$C$9,$A$26:$A$28,0)))</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C34" s="2">
         <f>INDEX(B31:B34,MATCH('Sproles'' Input Sheet'!C10,A31:A34,0))</f>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/_static/NoCode/Sproles Point System.xlsx
+++ b/_static/NoCode/Sproles Point System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADFCA6-1E68-D545-80E1-E098320D59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49967D40-3B85-1045-AD2E-6AFA0A553F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="780" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
+    <workbookView xWindow="19700" yWindow="3320" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sproles' Input Sheet" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,11 +647,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="D6" s="12">
         <f>'Point System Weightings'!C9</f>
-        <v>0</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -659,11 +659,11 @@
         <v>27</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="12">
         <f>'Point System Weightings'!C18</f>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -671,11 +671,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="12">
         <f>'Point System Weightings'!C23</f>
-        <v>0</v>
+        <v>-6900</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -683,11 +683,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12">
         <f>'Point System Weightings'!C28</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12">
         <f>'Point System Weightings'!C34</f>
-        <v>10000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13">
         <f>SUM('Sproles'' Input Sheet'!D6:D10)</f>
-        <v>10000</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -777,7 +777,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="C9" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B4*'Sproles'' Input Sheet'!C6-B5*POWER(('Sproles'' Input Sheet'!C6-B6)/B7,2)+B8,'Point System Weightings'!B9))</f>
-        <v>0</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="C18" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B12*(B13*'Sproles'' Input Sheet'!C7-B14*POWER(('Sproles'' Input Sheet'!C7-B15)/B16,2)+B17),'Point System Weightings'!B18))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C23" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*10*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*10,2)+B23,0))</f>
-        <v>0</v>
+        <v>-6900</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="C28" s="2">
         <f>IF('Sproles'' Input Sheet'!$C$10=$A$34,0,INDEX(B26:B28,MATCH('Sproles'' Input Sheet'!$C$9,$A$26:$A$28,0)))</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="4">
-        <v>15000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C34" s="2">
         <f>INDEX(B31:B34,MATCH('Sproles'' Input Sheet'!C10,A31:A34,0))</f>
-        <v>10000</v>
+        <v>12500</v>
       </c>
     </row>
   </sheetData>

--- a/_static/NoCode/Sproles Point System.xlsx
+++ b/_static/NoCode/Sproles Point System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Library/CloudStorage/GoogleDrive-atwell@stanford.edu/My Drive/Home/negogos/OB581/_static/NoCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49967D40-3B85-1045-AD2E-6AFA0A553F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44318D9-B207-074D-83EB-02F35CAF5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19700" yWindow="3320" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sproles' Input Sheet" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,11 +647,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="14">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>'Point System Weightings'!C9</f>
-        <v>4078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -659,11 +659,11 @@
         <v>27</v>
       </c>
       <c r="C7" s="14">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>'Point System Weightings'!C18</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -671,11 +671,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f>'Point System Weightings'!C23</f>
-        <v>-6900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -683,11 +683,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <f>'Point System Weightings'!C28</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -695,11 +695,11 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="12">
         <f>'Point System Weightings'!C34</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13">
         <f>SUM('Sproles'' Input Sheet'!D6:D10)</f>
-        <v>12228</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
       </c>
       <c r="C9" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B4*'Sproles'' Input Sheet'!C6-B5*POWER(('Sproles'' Input Sheet'!C6-B6)/B7,2)+B8,'Point System Weightings'!B9))</f>
-        <v>4078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="C18" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B12*(B13*'Sproles'' Input Sheet'!C7-B14*POWER(('Sproles'' Input Sheet'!C7-B15)/B16,2)+B17),'Point System Weightings'!B18))</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C23" s="2">
         <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*10*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*10,2)+B23,0))</f>
-        <v>-6900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="C28" s="2">
         <f>IF('Sproles'' Input Sheet'!$C$10=$A$34,0,INDEX(B26:B28,MATCH('Sproles'' Input Sheet'!$C$9,$A$26:$A$28,0)))</f>
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C34" s="2">
         <f>INDEX(B31:B34,MATCH('Sproles'' Input Sheet'!C10,A31:A34,0))</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/_static/NoCode/Sproles Point System.xlsx
+++ b/_static/NoCode/Sproles Point System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Library/CloudStorage/GoogleDrive-atwell@stanford.edu/My Drive/Home/negogos/OB581/_static/NoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/My Drive/Home/Teaching/Negotiations/New Cases/NoCode, Inc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44318D9-B207-074D-83EB-02F35CAF5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10295B73-2540-734C-A3CC-45978CBB9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
+    <workbookView xWindow="4260" yWindow="5200" windowWidth="28800" windowHeight="17500" xr2:uid="{ED416F58-E6F8-FF4F-842A-87CC833566AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sproles' Input Sheet" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -280,13 +281,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -309,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,7 +610,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +671,7 @@
       <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>0</v>
       </c>
       <c r="D8" s="12">
@@ -682,7 +683,7 @@
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="12">
@@ -694,7 +695,7 @@
       <c r="B10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="12">
@@ -777,7 +778,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +962,7 @@
         <v>3000</v>
       </c>
       <c r="C23" s="2">
-        <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*10*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*10,2)+B23,0))</f>
+        <f>IF('Sproles'' Input Sheet'!C10=$A$34,0,ROUND(B21*100*'Sproles'' Input Sheet'!C8+B22*POWER('Sproles'' Input Sheet'!C8*100,2)+B23,0))</f>
         <v>0</v>
       </c>
     </row>
